--- a/EngenhariaDeSoftware/Burndown/Burndown.xlsx
+++ b/EngenhariaDeSoftware/Burndown/Burndown.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
   <si>
     <t>Sprint Burndown</t>
   </si>
@@ -37,10 +37,10 @@
     <t>27/04/2025</t>
   </si>
   <si>
-    <t>18/04/2025</t>
-  </si>
-  <si>
-    <t>25/04/2025</t>
+    <t>18/05/2025</t>
+  </si>
+  <si>
+    <t>25/05/2025</t>
   </si>
   <si>
     <t>15/06/2025</t>
@@ -173,17 +173,141 @@
   </si>
   <si>
     <t>Esforço Restante</t>
+  </si>
+  <si>
+    <t>apf</t>
+  </si>
+  <si>
+    <t>prog pygame</t>
+  </si>
+  <si>
+    <t>criar menu</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>ava</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 2</t>
+  </si>
+  <si>
+    <t>28/04</t>
+  </si>
+  <si>
+    <t>29/04</t>
+  </si>
+  <si>
+    <t>30/04</t>
+  </si>
+  <si>
+    <t>Criar menu</t>
+  </si>
+  <si>
+    <t>Grafo</t>
+  </si>
+  <si>
+    <t>Cartas(inicial)</t>
+  </si>
+  <si>
+    <t>Definir jogdores</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 3</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 4</t>
+  </si>
+  <si>
+    <t>Rever</t>
+  </si>
+  <si>
+    <t>13/05</t>
+  </si>
+  <si>
+    <t>14/05</t>
+  </si>
+  <si>
+    <t>15/05</t>
+  </si>
+  <si>
+    <t>16/05</t>
+  </si>
+  <si>
+    <t>17/05</t>
+  </si>
+  <si>
+    <t>18/05</t>
+  </si>
+  <si>
+    <t>Atualiazar</t>
+  </si>
+  <si>
+    <t>Cartas(rotas)</t>
+  </si>
+  <si>
+    <t>Cartas(compra)</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 5</t>
+  </si>
+  <si>
+    <t>19/05</t>
+  </si>
+  <si>
+    <t>20/05</t>
+  </si>
+  <si>
+    <t>21/05</t>
+  </si>
+  <si>
+    <t>22/05</t>
+  </si>
+  <si>
+    <t>23/05</t>
+  </si>
+  <si>
+    <t>24/05</t>
+  </si>
+  <si>
+    <t>25/05</t>
+  </si>
+  <si>
+    <t>bilhete destino</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 6</t>
+  </si>
+  <si>
+    <t>26/05</t>
+  </si>
+  <si>
+    <t>27/05</t>
+  </si>
+  <si>
+    <t>28/05</t>
+  </si>
+  <si>
+    <t>29/05</t>
+  </si>
+  <si>
+    <t>30/05</t>
+  </si>
+  <si>
+    <t>31/05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
+    <numFmt numFmtId="166" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -216,6 +340,10 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
       <name val="Poppins"/>
     </font>
     <font>
@@ -290,7 +418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -330,6 +458,14 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
       <top style="thin">
@@ -365,7 +501,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -417,11 +553,20 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="10" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -434,25 +579,38 @@
     <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="10" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,11 +696,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="738976204"/>
-        <c:axId val="745014238"/>
+        <c:axId val="1146975669"/>
+        <c:axId val="1981297922"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="738976204"/>
+        <c:axId val="1146975669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,10 +752,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745014238"/>
+        <c:crossAx val="1981297922"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="745014238"/>
+        <c:axId val="1981297922"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +830,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="738976204"/>
+        <c:crossAx val="1146975669"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -698,16 +856,1196 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$55:$R$55</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$56:$R$56</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="349587464"/>
+        <c:axId val="1350189079"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="349587464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1350189079"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1350189079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Backlog semana 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="349587464"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$66:$R$66</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$67:$R$67</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1180502139"/>
+        <c:axId val="1243538186"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1180502139"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1243538186"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1243538186"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Semana 3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1180502139"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$81:$R$81</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$82:$R$82</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="346326286"/>
+        <c:axId val="1564687610"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="346326286"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1564687610"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1564687610"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Semana 3</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="346326286"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 5</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$96:$R$96</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$97:$R$97</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="908739435"/>
+        <c:axId val="1224784550"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="908739435"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1224784550"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1224784550"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Sprint 5</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="908739435"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$114:$R$114</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$115:$R$115</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="947833810"/>
+        <c:axId val="456758347"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="947833810"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="456758347"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="456758347"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Sprint 6</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947833810"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="9344025" cy="5781675"/>
+    <xdr:ext cx="2952750" cy="1819275"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
@@ -720,6 +2058,131 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 2" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 3" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 5" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 6" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -984,7 +2447,7 @@
         <v>45752.0</v>
       </c>
       <c r="K5" s="7">
-        <v>45965.0</v>
+        <v>45966.0</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>8</v>
@@ -1067,14 +2530,14 @@
       <c r="G7" s="17"/>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
     </row>
     <row r="8">
       <c r="B8" s="14" t="s">
@@ -1095,15 +2558,15 @@
         <v>4.9</v>
       </c>
       <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
     </row>
     <row r="9">
       <c r="B9" s="14" t="s">
@@ -1124,15 +2587,15 @@
         <v>1.2</v>
       </c>
       <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
     </row>
     <row r="10">
       <c r="B10" s="14" t="s">
@@ -1153,15 +2616,15 @@
         <v>7.0</v>
       </c>
       <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
     </row>
     <row r="11">
       <c r="B11" s="14" t="s">
@@ -1182,15 +2645,15 @@
       <c r="H11" s="17">
         <v>5.25</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
     </row>
     <row r="12">
       <c r="B12" s="14" t="s">
@@ -1211,15 +2674,15 @@
       <c r="H12" s="17">
         <v>7.0</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
     </row>
     <row r="13">
       <c r="B13" s="14" t="s">
@@ -1240,15 +2703,15 @@
       <c r="H13" s="17">
         <v>3.5</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14">
       <c r="B14" s="14" t="s">
@@ -1267,15 +2730,17 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="I14" s="24">
+        <v>7.0</v>
+      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
     </row>
     <row r="15">
       <c r="B15" s="14" t="s">
@@ -1294,15 +2759,17 @@
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="I15" s="24">
+        <v>10.5</v>
+      </c>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
     </row>
     <row r="16">
       <c r="B16" s="14" t="s">
@@ -1321,15 +2788,17 @@
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="I16" s="24">
+        <v>5.6</v>
+      </c>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
     </row>
     <row r="17">
       <c r="B17" s="14" t="s">
@@ -1348,15 +2817,17 @@
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="I17" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
     </row>
     <row r="18">
       <c r="B18" s="14" t="s">
@@ -1375,15 +2846,17 @@
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="I18" s="24">
+        <v>2.1</v>
+      </c>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
     </row>
     <row r="19">
       <c r="B19" s="14" t="s">
@@ -1402,15 +2875,17 @@
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
+      <c r="I19" s="24">
+        <v>4.9</v>
+      </c>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
     </row>
     <row r="20">
       <c r="B20" s="14" t="s">
@@ -1429,15 +2904,17 @@
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
+      <c r="I20" s="24">
+        <v>4.9</v>
+      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
     </row>
     <row r="21">
       <c r="B21" s="14" t="s">
@@ -1456,15 +2933,17 @@
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
+      <c r="I21" s="24">
+        <v>1.2</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22">
       <c r="B22" s="14" t="s">
@@ -1482,15 +2961,17 @@
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
+      <c r="I22" s="25">
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
     </row>
     <row r="23">
       <c r="B23" s="14" t="s">
@@ -1509,15 +2990,17 @@
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
+      <c r="I23" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
     </row>
     <row r="24">
       <c r="B24" s="14" t="s">
@@ -1536,15 +3019,15 @@
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
     </row>
     <row r="25">
       <c r="B25" s="14" t="s">
@@ -1563,15 +3046,15 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
     </row>
     <row r="26">
       <c r="B26" s="14" t="s">
@@ -1590,15 +3073,15 @@
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
     </row>
     <row r="27">
       <c r="B27" s="14" t="s">
@@ -1617,15 +3100,15 @@
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
     </row>
     <row r="28">
       <c r="B28" s="14" t="s">
@@ -1644,15 +3127,15 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
     </row>
     <row r="29">
       <c r="B29" s="14" t="s">
@@ -1671,15 +3154,15 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
     </row>
     <row r="30">
       <c r="B30" s="14" t="s">
@@ -1698,15 +3181,15 @@
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31">
       <c r="B31" s="14" t="s">
@@ -1725,15 +3208,15 @@
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
     </row>
     <row r="32">
       <c r="B32" s="14" t="s">
@@ -1752,44 +3235,44 @@
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
     </row>
     <row r="33">
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="24">
+      <c r="C33" s="27">
         <v>2.0</v>
       </c>
-      <c r="D33" s="24">
+      <c r="D33" s="27">
         <v>0.5</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="27">
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30">
         <v>1.0</v>
       </c>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="29"/>
-      <c r="N33" s="29"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
     </row>
     <row r="34">
       <c r="B34" s="14" t="s">
@@ -1801,299 +3284,865 @@
       <c r="D34" s="15">
         <v>0.8</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="28">
         <f t="shared" si="2"/>
         <v>1.6</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
+      <c r="I34" s="35">
+        <v>1.6</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
     </row>
     <row r="35">
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="27">
         <v>4.0</v>
       </c>
-      <c r="D35" s="24">
+      <c r="D35" s="27">
         <v>2.0</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="28">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
     </row>
     <row r="36">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33">
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38">
         <f>SUM(E7:E35)</f>
         <v>104.9</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="39">
         <f t="shared" ref="F36:Q36" si="3">E36-SUM(F7:F35)</f>
         <v>103.15</v>
       </c>
-      <c r="G36" s="34">
+      <c r="G36" s="39">
         <f t="shared" si="3"/>
         <v>90.05</v>
       </c>
-      <c r="H36" s="34">
+      <c r="H36" s="39">
         <f t="shared" si="3"/>
         <v>73.3</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="J36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="J36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="K36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="K36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="L36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="L36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="M36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="M36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="N36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="N36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="O36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="O36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="P36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="P36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="Q36" s="34">
+        <v>29.8</v>
+      </c>
+      <c r="Q36" s="39">
         <f t="shared" si="3"/>
-        <v>73.3</v>
-      </c>
-      <c r="S36" s="35"/>
+        <v>29.8</v>
+      </c>
+      <c r="S36" s="40"/>
     </row>
     <row r="37">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="33">
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38">
         <f>SUM(E7:E35)</f>
         <v>104.9</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="39">
         <f>$E$37-($E$37/12*1)</f>
         <v>96.15833333</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="39">
         <f>$E$37-($E$37/12*2)</f>
         <v>87.41666667</v>
       </c>
-      <c r="H37" s="34">
+      <c r="H37" s="39">
         <f>$E$37-($E$37/12*3)</f>
         <v>78.675</v>
       </c>
-      <c r="I37" s="34">
+      <c r="I37" s="39">
         <f>$E$37-($E$37/12*4)</f>
         <v>69.93333333</v>
       </c>
-      <c r="J37" s="34">
+      <c r="J37" s="39">
         <f>$E$37-($E$37/12*5)</f>
         <v>61.19166667</v>
       </c>
-      <c r="K37" s="34">
+      <c r="K37" s="39">
         <f>$E$37-($E$37/12*6)</f>
         <v>52.45</v>
       </c>
-      <c r="L37" s="34">
+      <c r="L37" s="39">
         <f>$E$37-($E$37/12*7)</f>
         <v>43.70833333</v>
       </c>
-      <c r="M37" s="34">
+      <c r="M37" s="39">
         <f>$E$37-($E$37/12*8)</f>
         <v>34.96666667</v>
       </c>
-      <c r="N37" s="34">
+      <c r="N37" s="39">
         <f>$E$37-($E$37/12*9)</f>
         <v>26.225</v>
       </c>
-      <c r="O37" s="34">
+      <c r="O37" s="39">
         <f>$E$37-($E$37/12*10)</f>
         <v>17.48333333</v>
       </c>
-      <c r="P37" s="34">
+      <c r="P37" s="39">
         <f>$E$37-($E$37/12*11)</f>
         <v>8.741666667</v>
       </c>
-      <c r="Q37" s="34">
+      <c r="Q37" s="39">
         <f>$E$37-($E$37/12*12)</f>
         <v>0</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="41">
         <v>104.9</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="41">
         <v>104.9</v>
       </c>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
     </row>
     <row r="38">
-      <c r="R38" s="37">
+      <c r="R38" s="42">
         <v>96.15833333333333</v>
       </c>
-      <c r="S38" s="37">
+      <c r="S38" s="42">
         <v>103.15</v>
       </c>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
     </row>
     <row r="39">
-      <c r="R39" s="37">
+      <c r="R39" s="42">
         <v>87.41666666666667</v>
       </c>
-      <c r="S39" s="37">
+      <c r="S39" s="42">
         <v>90.05000000000001</v>
       </c>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
     </row>
     <row r="40">
-      <c r="R40" s="37">
+      <c r="R40" s="42">
         <v>78.67500000000001</v>
       </c>
-      <c r="S40" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
+      <c r="S40" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
     </row>
     <row r="41">
-      <c r="R41" s="37">
+      <c r="R41" s="42">
         <v>69.93333333333334</v>
       </c>
-      <c r="S41" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="37"/>
+      <c r="S41" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
     </row>
     <row r="42">
-      <c r="R42" s="37">
+      <c r="R42" s="42">
         <v>61.19166666666667</v>
       </c>
-      <c r="S42" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37"/>
+      <c r="S42" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
     </row>
     <row r="43">
-      <c r="R43" s="37">
+      <c r="R43" s="42">
         <v>52.45</v>
       </c>
-      <c r="S43" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T43" s="37"/>
-      <c r="U43" s="37"/>
+      <c r="S43" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
     </row>
     <row r="44">
-      <c r="R44" s="37">
+      <c r="R44" s="42">
         <v>43.708333333333336</v>
       </c>
-      <c r="S44" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T44" s="37"/>
-      <c r="U44" s="37"/>
+      <c r="S44" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
     </row>
     <row r="45">
-      <c r="R45" s="37">
+      <c r="R45" s="42">
         <v>34.96666666666667</v>
       </c>
-      <c r="S45" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T45" s="37"/>
-      <c r="U45" s="37"/>
+      <c r="S45" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
     </row>
     <row r="46">
-      <c r="R46" s="37">
+      <c r="R46" s="42">
         <v>26.224999999999994</v>
       </c>
-      <c r="S46" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T46" s="37"/>
-      <c r="U46" s="37"/>
+      <c r="S46" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
     </row>
     <row r="47">
-      <c r="R47" s="37">
+      <c r="R47" s="42">
         <v>17.483333333333334</v>
       </c>
-      <c r="S47" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
+      <c r="S47" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
     </row>
     <row r="48">
-      <c r="R48" s="37">
+      <c r="I48" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="R48" s="42">
         <v>8.741666666666674</v>
       </c>
-      <c r="S48" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T48" s="37"/>
-      <c r="U48" s="37"/>
+      <c r="S48" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
     </row>
     <row r="49">
-      <c r="R49" s="37">
+      <c r="I49" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="43">
+        <v>1.2</v>
+      </c>
+      <c r="R49" s="42">
         <v>0.0</v>
       </c>
-      <c r="S49" s="37">
-        <v>73.30000000000001</v>
-      </c>
-      <c r="T49" s="37"/>
-      <c r="U49" s="37"/>
+      <c r="S49" s="42">
+        <v>30.700000000000003</v>
+      </c>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+    </row>
+    <row r="50">
+      <c r="I50" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J51" s="43">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="I52" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="J52" s="43">
+        <v>1.6</v>
+      </c>
+      <c r="K52" s="44">
+        <f>SUM(J48:J52)</f>
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="J54" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="L54" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="M54" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="O54" s="45">
+        <v>45662.0</v>
+      </c>
+      <c r="P54" s="45">
+        <v>45693.0</v>
+      </c>
+      <c r="Q54" s="45">
+        <v>45721.0</v>
+      </c>
+      <c r="R54" s="45">
+        <v>45752.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="L55" s="44">
+        <f t="shared" ref="L55:O55" si="4">SUM(K51:K55)</f>
+        <v>12.7</v>
+      </c>
+      <c r="M55" s="44">
+        <f t="shared" si="4"/>
+        <v>12.7</v>
+      </c>
+      <c r="N55" s="44">
+        <f t="shared" si="4"/>
+        <v>12.7</v>
+      </c>
+      <c r="O55" s="44">
+        <f t="shared" si="4"/>
+        <v>12.7</v>
+      </c>
+      <c r="P55" s="43">
+        <v>4.5</v>
+      </c>
+      <c r="Q55" s="43">
+        <v>2.5</v>
+      </c>
+      <c r="R55" s="43">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="L56" s="43">
+        <v>12.7</v>
+      </c>
+      <c r="M56" s="44">
+        <f t="shared" ref="M56:R56" si="5">L56-($L56/6)</f>
+        <v>10.58333333</v>
+      </c>
+      <c r="N56" s="44">
+        <f t="shared" si="5"/>
+        <v>8.466666667</v>
+      </c>
+      <c r="O56" s="44">
+        <f t="shared" si="5"/>
+        <v>6.35</v>
+      </c>
+      <c r="P56" s="44">
+        <f t="shared" si="5"/>
+        <v>4.233333333</v>
+      </c>
+      <c r="Q56" s="44">
+        <f t="shared" si="5"/>
+        <v>2.116666667</v>
+      </c>
+      <c r="R56" s="44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="I60" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="43">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="I61" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" s="43">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J62" s="43">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="I63" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="J63" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="K63" s="44">
+        <f>SUM(J60:J63)</f>
+        <v>5.45</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="J65" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="L65" s="45">
+        <v>45782.0</v>
+      </c>
+      <c r="M65" s="45">
+        <v>45813.0</v>
+      </c>
+      <c r="N65" s="45">
+        <v>45843.0</v>
+      </c>
+      <c r="O65" s="45">
+        <v>45874.0</v>
+      </c>
+      <c r="P65" s="45">
+        <v>45905.0</v>
+      </c>
+      <c r="Q65" s="45">
+        <v>45935.0</v>
+      </c>
+      <c r="R65" s="45">
+        <v>45966.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="L66" s="43">
+        <v>5.45</v>
+      </c>
+      <c r="M66" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="N66" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="O66" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="P66" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="Q66" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="R66" s="43">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="L67" s="43">
+        <v>5.45</v>
+      </c>
+      <c r="M67" s="44">
+        <f t="shared" ref="M67:R67" si="6">L67-($L67/6)</f>
+        <v>4.541666667</v>
+      </c>
+      <c r="N67" s="44">
+        <f t="shared" si="6"/>
+        <v>3.633333333</v>
+      </c>
+      <c r="O67" s="44">
+        <f t="shared" si="6"/>
+        <v>2.725</v>
+      </c>
+      <c r="P67" s="44">
+        <f t="shared" si="6"/>
+        <v>1.816666667</v>
+      </c>
+      <c r="Q67" s="44">
+        <f t="shared" si="6"/>
+        <v>0.9083333333</v>
+      </c>
+      <c r="R67" s="44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="I76" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J76" s="43">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="I77" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="J77" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="K77" s="43">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="J79" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="N79" s="43">
+        <v>3.5</v>
+      </c>
+      <c r="O79" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="P79" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="Q79" s="43">
+        <v>0.5</v>
+      </c>
+      <c r="S79" s="43" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45">
+        <v>45996.0</v>
+      </c>
+      <c r="M80" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="N80" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="O80" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P80" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q80" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="R80" s="43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="L81" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="M81" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="N81" s="43">
+        <v>6.0</v>
+      </c>
+      <c r="O81" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="P81" s="43">
+        <v>3.0</v>
+      </c>
+      <c r="Q81" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="R81" s="43">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="L82" s="43">
+        <v>7.0</v>
+      </c>
+      <c r="M82" s="44">
+        <f t="shared" ref="M82:R82" si="7">L82-($L82/6)</f>
+        <v>5.833333333</v>
+      </c>
+      <c r="N82" s="44">
+        <f t="shared" si="7"/>
+        <v>4.666666667</v>
+      </c>
+      <c r="O82" s="44">
+        <f t="shared" si="7"/>
+        <v>3.5</v>
+      </c>
+      <c r="P82" s="44">
+        <f t="shared" si="7"/>
+        <v>2.333333333</v>
+      </c>
+      <c r="Q82" s="44">
+        <f t="shared" si="7"/>
+        <v>1.166666667</v>
+      </c>
+      <c r="R82" s="44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="I88" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J88" s="43">
+        <v>1.0</v>
+      </c>
+      <c r="L88" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="I90" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="J90" s="43">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="I91" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J91" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="K91" s="44">
+        <f>SUM(J88:J91)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="J95" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="L95" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="M95" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N95" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="O95" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P95" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q95" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="R95" s="43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="L96" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="M96" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="N96" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="O96" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="P96" s="43">
+        <v>1.8</v>
+      </c>
+      <c r="Q96" s="43">
+        <v>1.5</v>
+      </c>
+      <c r="R96" s="43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="L97" s="43">
+        <v>5.0</v>
+      </c>
+      <c r="M97" s="44">
+        <f t="shared" ref="M97:R97" si="8">L97-($L97/6)</f>
+        <v>4.166666667</v>
+      </c>
+      <c r="N97" s="44">
+        <f t="shared" si="8"/>
+        <v>3.333333333</v>
+      </c>
+      <c r="O97" s="44">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="P97" s="44">
+        <f t="shared" si="8"/>
+        <v>1.666666667</v>
+      </c>
+      <c r="Q97" s="44">
+        <f t="shared" si="8"/>
+        <v>0.8333333333</v>
+      </c>
+      <c r="R97" s="44">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="I110" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="J110" s="43">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="I111" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J111" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="K111" s="44">
+        <f>SUM(J108:J111)</f>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="J113" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="L113" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="M113" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="N113" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="O113" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P113" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q113" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="R113" s="45">
+        <v>45663.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="L114" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="M114" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="N114" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="O114" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="P114" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="Q114" s="43">
+        <v>4.0</v>
+      </c>
+      <c r="R114" s="43">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="L115" s="43">
+        <v>4.8</v>
+      </c>
+      <c r="M115" s="44">
+        <f t="shared" ref="M115:R115" si="9">L115-($L115/6)</f>
+        <v>4</v>
+      </c>
+      <c r="N115" s="44">
+        <f t="shared" si="9"/>
+        <v>3.2</v>
+      </c>
+      <c r="O115" s="44">
+        <f t="shared" si="9"/>
+        <v>2.4</v>
+      </c>
+      <c r="P115" s="44">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="Q115" s="44">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="R115" s="44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="12">
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J113:K113"/>
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>

--- a/EngenhariaDeSoftware/Burndown/Burndown.xlsx
+++ b/EngenhariaDeSoftware/Burndown/Burndown.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="103">
   <si>
     <t>Sprint Burndown</t>
   </si>
@@ -296,18 +296,43 @@
   </si>
   <si>
     <t>31/05</t>
+  </si>
+  <si>
+    <t>fim de jogo</t>
+  </si>
+  <si>
+    <t>salvamento</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 7</t>
+  </si>
+  <si>
+    <t>programar AI</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 8</t>
+  </si>
+  <si>
+    <t>Validar entrega</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 9</t>
+  </si>
+  <si>
+    <t>Burndown Sprint 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="165" formatCode="M/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd"/>
+    <numFmt numFmtId="167" formatCode="dd&quot;/&quot;mm"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -354,6 +379,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -501,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -612,6 +641,12 @@
     <xf borderId="0" fillId="0" fontId="9" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -696,11 +731,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1146975669"/>
-        <c:axId val="1981297922"/>
+        <c:axId val="942107586"/>
+        <c:axId val="953418189"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1146975669"/>
+        <c:axId val="942107586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -752,10 +787,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1981297922"/>
+        <c:crossAx val="953418189"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1981297922"/>
+        <c:axId val="953418189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,11 +865,247 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146975669"/>
+        <c:crossAx val="942107586"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$134:$R$134</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$135:$R$135</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1438692562"/>
+        <c:axId val="92149801"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1438692562"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92149801"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92149801"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Sprint 7</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1438692562"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -932,11 +1203,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="349587464"/>
-        <c:axId val="1350189079"/>
+        <c:axId val="741645862"/>
+        <c:axId val="1879236073"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="349587464"/>
+        <c:axId val="741645862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -988,10 +1259,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1350189079"/>
+        <c:crossAx val="1879236073"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1350189079"/>
+        <c:axId val="1879236073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1066,7 +1337,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="349587464"/>
+        <c:crossAx val="741645862"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1168,11 +1439,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1180502139"/>
-        <c:axId val="1243538186"/>
+        <c:axId val="326604471"/>
+        <c:axId val="61951697"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1180502139"/>
+        <c:axId val="326604471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1224,10 +1495,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1243538186"/>
+        <c:crossAx val="61951697"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1243538186"/>
+        <c:axId val="61951697"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1302,7 +1573,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1180502139"/>
+        <c:crossAx val="326604471"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1404,11 +1675,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="346326286"/>
-        <c:axId val="1564687610"/>
+        <c:axId val="776382822"/>
+        <c:axId val="169712561"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="346326286"/>
+        <c:axId val="776382822"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1460,10 +1731,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564687610"/>
+        <c:crossAx val="169712561"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1564687610"/>
+        <c:axId val="169712561"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1538,7 +1809,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="346326286"/>
+        <c:crossAx val="776382822"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1640,11 +1911,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="908739435"/>
-        <c:axId val="1224784550"/>
+        <c:axId val="1596286267"/>
+        <c:axId val="1004209329"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="908739435"/>
+        <c:axId val="1596286267"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,10 +1967,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1224784550"/>
+        <c:crossAx val="1004209329"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1224784550"/>
+        <c:axId val="1004209329"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1774,7 +2045,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="908739435"/>
+        <c:crossAx val="1596286267"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1876,11 +2147,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="947833810"/>
-        <c:axId val="456758347"/>
+        <c:axId val="797317241"/>
+        <c:axId val="376397473"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="947833810"/>
+        <c:axId val="797317241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,10 +2203,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456758347"/>
+        <c:crossAx val="376397473"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="456758347"/>
+        <c:axId val="376397473"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2281,715 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="947833810"/>
+        <c:crossAx val="797317241"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 8</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$154:$R$154</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$155:$R$155</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1077511498"/>
+        <c:axId val="1068469827"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1077511498"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1068469827"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1068469827"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Sprint 8</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077511498"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 9</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$174:$R$174</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$175:$R$175</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="338747569"/>
+        <c:axId val="1077878294"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="338747569"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1077878294"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1077878294"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Sprint 9</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338747569"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Burndown Sprint 10</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$194:$R$194</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$195:$R$195</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="523439429"/>
+        <c:axId val="1422575781"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="523439429"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1422575781"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1422575781"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Burndown Sprint 10</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="523439429"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2183,6 +3162,106 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 7" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2667000</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 8" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 9" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2619375</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 10" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4136,13 +5215,454 @@
         <v>0</v>
       </c>
     </row>
+    <row r="129">
+      <c r="I129" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J129" s="43">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="I130" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J130" s="43">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="I131" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J131" s="43">
+        <v>0.6</v>
+      </c>
+      <c r="K131" s="44">
+        <f>SUM(J129:J131)</f>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="J133" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="L133" s="47">
+        <v>45810.0</v>
+      </c>
+      <c r="M133" s="47">
+        <v>45811.0</v>
+      </c>
+      <c r="N133" s="47">
+        <v>45812.0</v>
+      </c>
+      <c r="O133" s="47">
+        <v>45813.0</v>
+      </c>
+      <c r="P133" s="47">
+        <v>45814.0</v>
+      </c>
+      <c r="Q133" s="47">
+        <v>45815.0</v>
+      </c>
+      <c r="R133" s="47">
+        <v>45816.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="L134" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="M134" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="N134" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="O134" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="P134" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="Q134" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="R134" s="43">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="L135" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="M135" s="44">
+        <f t="shared" ref="M135:R135" si="10">L135-($L135/6)</f>
+        <v>5.333333333</v>
+      </c>
+      <c r="N135" s="44">
+        <f t="shared" si="10"/>
+        <v>4.266666667</v>
+      </c>
+      <c r="O135" s="44">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="P135" s="44">
+        <f t="shared" si="10"/>
+        <v>2.133333333</v>
+      </c>
+      <c r="Q135" s="44">
+        <f t="shared" si="10"/>
+        <v>1.066666667</v>
+      </c>
+      <c r="R135" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="I148" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J148" s="43">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="I149" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J149" s="43">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="I150" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J150" s="43">
+        <v>3.4</v>
+      </c>
+      <c r="K150" s="44">
+        <f>SUM(J148:J150)</f>
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="J153" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="L153" s="47">
+        <v>45817.0</v>
+      </c>
+      <c r="M153" s="47">
+        <v>45818.0</v>
+      </c>
+      <c r="N153" s="47">
+        <v>45819.0</v>
+      </c>
+      <c r="O153" s="47">
+        <v>45820.0</v>
+      </c>
+      <c r="P153" s="47">
+        <v>45821.0</v>
+      </c>
+      <c r="Q153" s="47">
+        <v>45822.0</v>
+      </c>
+      <c r="R153" s="47">
+        <v>45823.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="L154" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="M154" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="N154" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="O154" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="P154" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="Q154" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="R154" s="43">
+        <v>9.2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="L155" s="43">
+        <v>9.2</v>
+      </c>
+      <c r="M155" s="44">
+        <f t="shared" ref="M155:R155" si="11">L155-($L155/6)</f>
+        <v>7.666666667</v>
+      </c>
+      <c r="N155" s="44">
+        <f t="shared" si="11"/>
+        <v>6.133333333</v>
+      </c>
+      <c r="O155" s="44">
+        <f t="shared" si="11"/>
+        <v>4.6</v>
+      </c>
+      <c r="P155" s="44">
+        <f t="shared" si="11"/>
+        <v>3.066666667</v>
+      </c>
+      <c r="Q155" s="44">
+        <f t="shared" si="11"/>
+        <v>1.533333333</v>
+      </c>
+      <c r="R155" s="44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="I167" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J167" s="43">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="I168" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J168" s="43">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="I169" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J169" s="43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="I170" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J170" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="K170" s="44">
+        <f>SUM(J167:J170)</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="L172" s="47"/>
+    </row>
+    <row r="173">
+      <c r="J173" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="L173" s="47">
+        <v>45824.0</v>
+      </c>
+      <c r="M173" s="47">
+        <v>45825.0</v>
+      </c>
+      <c r="N173" s="47">
+        <v>45826.0</v>
+      </c>
+      <c r="O173" s="47">
+        <v>45827.0</v>
+      </c>
+      <c r="P173" s="47">
+        <v>45828.0</v>
+      </c>
+      <c r="Q173" s="47">
+        <v>45829.0</v>
+      </c>
+      <c r="R173" s="47">
+        <v>45830.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="L174" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="M174" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="N174" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="O174" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="P174" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="Q174" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="R174" s="43">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="L175" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="M175" s="44">
+        <f t="shared" ref="M175:R175" si="12">L175-($L175/6)</f>
+        <v>14.33333333</v>
+      </c>
+      <c r="N175" s="44">
+        <f t="shared" si="12"/>
+        <v>11.46666667</v>
+      </c>
+      <c r="O175" s="44">
+        <f t="shared" si="12"/>
+        <v>8.6</v>
+      </c>
+      <c r="P175" s="44">
+        <f t="shared" si="12"/>
+        <v>5.733333333</v>
+      </c>
+      <c r="Q175" s="44">
+        <f t="shared" si="12"/>
+        <v>2.866666667</v>
+      </c>
+      <c r="R175" s="44">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="I187" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="J187" s="43">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="I188" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="J188" s="43">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="I189" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="J189" s="43">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="I190" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="J190" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="K190" s="44">
+        <f>SUM(J187:J190)</f>
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="L192" s="47"/>
+    </row>
+    <row r="193">
+      <c r="J193" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L193" s="47">
+        <v>45831.0</v>
+      </c>
+      <c r="M193" s="47">
+        <v>45832.0</v>
+      </c>
+      <c r="N193" s="47">
+        <v>45833.0</v>
+      </c>
+      <c r="O193" s="47">
+        <v>45834.0</v>
+      </c>
+      <c r="P193" s="47">
+        <v>45835.0</v>
+      </c>
+      <c r="Q193" s="47">
+        <v>45836.0</v>
+      </c>
+      <c r="R193" s="47">
+        <v>45837.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="L194" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="M194" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="N194" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="O194" s="43">
+        <v>13.2</v>
+      </c>
+      <c r="P194" s="43">
+        <v>11.4</v>
+      </c>
+      <c r="Q194" s="43">
+        <v>11.4</v>
+      </c>
+      <c r="R194" s="43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="L195" s="43">
+        <v>17.2</v>
+      </c>
+      <c r="M195" s="44">
+        <f t="shared" ref="M195:R195" si="13">L195-($L195/6)</f>
+        <v>14.33333333</v>
+      </c>
+      <c r="N195" s="44">
+        <f t="shared" si="13"/>
+        <v>11.46666667</v>
+      </c>
+      <c r="O195" s="44">
+        <f t="shared" si="13"/>
+        <v>8.6</v>
+      </c>
+      <c r="P195" s="44">
+        <f t="shared" si="13"/>
+        <v>5.733333333</v>
+      </c>
+      <c r="Q195" s="44">
+        <f t="shared" si="13"/>
+        <v>2.866666667</v>
+      </c>
+      <c r="R195" s="44">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J113:K113"/>
+  <mergeCells count="16">
     <mergeCell ref="B4:Q4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -4150,6 +5670,15 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
+    <mergeCell ref="J173:K173"/>
+    <mergeCell ref="J193:K193"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="J133:K133"/>
+    <mergeCell ref="J153:K153"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
